--- a/public/products_template.xlsx
+++ b/public/products_template.xlsx
@@ -19,29 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>1Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
   </si>
   <si>
-    <t>3Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
-  </si>
-  <si>
-    <t>https://ashleywildegroup.com/media/catalog/collection-sm/ALLEGRA_COLLECTION_1.jpg</t>
-  </si>
-  <si>
-    <t>https://ashleywildegroup.com/media/catalog/collection-sm/ARAVALLI_COLLECTION_1.jpg</t>
-  </si>
-  <si>
-    <t>https://ashleywildegroup.com/media/catalog/category/linnae.jpg</t>
-  </si>
-  <si>
     <t>available</t>
   </si>
   <si>
@@ -54,45 +36,12 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>42348fec-0777-4555-a935-638a57eb33f0</t>
-  </si>
-  <si>
-    <t>cd312b6e-ff18-4f19-b0d5-993d7b091a84</t>
-  </si>
-  <si>
-    <t>7346acda-0f39-4d74-bba5-c92fea872cda</t>
-  </si>
-  <si>
-    <t>https://ashleywildegroup.com/media/catalog/collection-sm/SAVONA_COLLECTION_1.jpg</t>
-  </si>
-  <si>
-    <t>e68470cf-fad6-4914-9265-b750d9472f55</t>
-  </si>
-  <si>
-    <t>920afaaa-ec63-46c3-86d5-98383683d62b</t>
-  </si>
-  <si>
-    <t>https://ashleywildegroup.com/media/catalog/collection-sm/SAVANNAH_COLLECTION_1.jpg</t>
-  </si>
-  <si>
-    <t>8c947531-325e-46e9-a2a1-4f9c19caf8b3</t>
-  </si>
-  <si>
-    <t>https://ashleywildegroup.com/media/catalog/collection-sm/MUSTIQUE_COLLECTION_1.jpg</t>
-  </si>
-  <si>
-    <t>https://ashleywildegroup.com/media/catalog/collection-sm/MIRAGE_COLLECTION_1.jpg</t>
-  </si>
-  <si>
     <t>product_name</t>
   </si>
   <si>
     <t>product_description</t>
   </si>
   <si>
-    <t>category_id</t>
-  </si>
-  <si>
     <t>best_seller</t>
   </si>
   <si>
@@ -114,20 +63,62 @@
     <t>product_image5</t>
   </si>
   <si>
-    <t>size_id</t>
-  </si>
-  <si>
-    <t>color_id</t>
-  </si>
-  <si>
     <t>variation_image</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>category one</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>xL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>3 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>Alaska Collection</t>
+  </si>
+  <si>
+    <t>Atlantic Collection</t>
+  </si>
+  <si>
+    <t>category four</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/Cotswolds_Category_1_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/Sirenete_Category.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,20 +132,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF020817"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -206,23 +183,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -232,9 +202,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -540,96 +509,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>11</v>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="O2" s="1">
         <v>150</v>
@@ -637,81 +598,56 @@
       <c r="P2" s="1">
         <v>60</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="4" t="s">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>150</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="1">
-        <v>250</v>
-      </c>
-      <c r="P3" s="1">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="O4" s="1">
         <v>500</v>
@@ -719,13 +655,214 @@
       <c r="P4" s="1">
         <v>100</v>
       </c>
-      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/products_template.xlsx
+++ b/public/products_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="224">
   <si>
     <t>1Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
   </si>
@@ -69,9 +69,6 @@
     <t>category_name</t>
   </si>
   <si>
-    <t>category one</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -90,35 +87,617 @@
     <t>L</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>blue</t>
   </si>
   <si>
     <t>l</t>
   </si>
   <si>
+    <t>green</t>
+  </si>
+  <si>
     <t>3 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
   </si>
   <si>
+    <t>4 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>6 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>7 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>8 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>9 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>10 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>11 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>12 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>13 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>14 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>15 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>16 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>17 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>18 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>19 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>20 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>21 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>22 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>23 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>xs</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>Alaska Collection</t>
   </si>
   <si>
     <t>Atlantic Collection</t>
   </si>
   <si>
-    <t>category four</t>
+    <t>Belvoir Collection</t>
+  </si>
+  <si>
+    <t>Caversham Collection</t>
+  </si>
+  <si>
+    <t>Chantilly Collection</t>
+  </si>
+  <si>
+    <t>Classica Collection</t>
+  </si>
+  <si>
+    <t>Cole Collection</t>
+  </si>
+  <si>
+    <t>Comet Collection</t>
+  </si>
+  <si>
+    <t>Dakota Collection</t>
+  </si>
+  <si>
+    <t>Darwin Collection</t>
+  </si>
+  <si>
+    <t>Delamere Collection</t>
+  </si>
+  <si>
+    <t>Diffusion Collection</t>
+  </si>
+  <si>
+    <t>Eden Collection</t>
+  </si>
+  <si>
+    <t>Essential Home Collection</t>
+  </si>
+  <si>
+    <t>Essential Weaves Vol 1</t>
+  </si>
+  <si>
+    <t>Essential Weaves Vol 2</t>
+  </si>
+  <si>
+    <t>Essential Weaves Vol 3</t>
+  </si>
+  <si>
+    <t>Formations Collection</t>
+  </si>
+  <si>
+    <t>Galaxy Collection</t>
+  </si>
+  <si>
+    <t>Juniper Collection</t>
+  </si>
+  <si>
+    <t>Kyoto Gardens Collection</t>
+  </si>
+  <si>
+    <t>Lunar Book Collection</t>
+  </si>
+  <si>
+    <t>Montana Collection</t>
+  </si>
+  <si>
+    <t>Monterey Collection</t>
+  </si>
+  <si>
+    <t>New Forest Collection</t>
+  </si>
+  <si>
+    <t>Omari Collection</t>
+  </si>
+  <si>
+    <t>Palm House Collection</t>
+  </si>
+  <si>
+    <t>Palma Collection</t>
+  </si>
+  <si>
+    <t>Portofino Collection</t>
+  </si>
+  <si>
+    <t>Provence Collection</t>
+  </si>
+  <si>
+    <t>Roseberry Manor Collection</t>
+  </si>
+  <si>
+    <t>Serengeti Collection</t>
+  </si>
+  <si>
+    <t>Sherwood Collection</t>
+  </si>
+  <si>
+    <t>Starlette Collection</t>
+  </si>
+  <si>
+    <t>Tahiti Collection</t>
+  </si>
+  <si>
+    <t>Tatton Park Collection</t>
+  </si>
+  <si>
+    <t>Textures Collection</t>
+  </si>
+  <si>
+    <t>Textures 2 Collection</t>
+  </si>
+  <si>
+    <t>Tivoli Collection</t>
+  </si>
+  <si>
+    <t>Tuscany Collection</t>
+  </si>
+  <si>
+    <t>Velluto Collection</t>
+  </si>
+  <si>
+    <t>Verona Collection</t>
+  </si>
+  <si>
+    <t>Visage Collection</t>
+  </si>
+  <si>
+    <t>Cotswolds Collection</t>
+  </si>
+  <si>
+    <t>Sirente Collection</t>
+  </si>
+  <si>
+    <t>Essential Weaves Vol4</t>
+  </si>
+  <si>
+    <t>Indienne Collection</t>
+  </si>
+  <si>
+    <t>Sheers Volume 1</t>
+  </si>
+  <si>
+    <t>24 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>25 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>26 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>27 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>28 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>29 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>30 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>31 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>32 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>33 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>34 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>35 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>36 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>37 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>38 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>39 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>40 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>41 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>42 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>43 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>44 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>45 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
+  </si>
+  <si>
+    <t>46 Lorem, ipsum dolor sit amet consectetur adipisicing elit. Deleniti optio nihil sint minima rerum! Minima quod suscipit voluptates quasi sapiente?</t>
   </si>
   <si>
     <t>https://ashleywildegroup.com//media/catalog/category/Cotswolds_Category_1_1.jpg</t>
   </si>
   <si>
     <t>https://ashleywildegroup.com//media/catalog/category/Sirenete_Category.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/Essential_Weaves_Volume_IV_Category.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/Indienne_Category.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/ALASKA_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/ATLANTIC_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/BELVOIR_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/CAVERSHAM_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/CHANTILLY_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/collection.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/COLE_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/COMET_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/DAKOTA_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/DARWIN_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/DELAMERE_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/DIFFUSION_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/eden.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/ESSENTIAL_HOME_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/ESSENTIAL_WEAVES_VOL_1_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/ESSENTIAL_WEAVES_VOL_2_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/ESSENTIAL_WEAVES_VOL_3_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/Formations_Category.png</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/GALAXY_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/JUNIPER_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/KYOTO_GARDENS_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/LUNAR_BOOK_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/MONTANA_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/monterey.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/NEW_FOREST_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/OMARI_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/PLAM_HOUSE_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/palma.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/PORTOFINO_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/PROVENCE_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/ROSEBERRY_MANOR_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/SERENGETI_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/category/sherwood.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/STARLETTE_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/TAHITI_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/TATTON_PARK_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/TEXTURES_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/TEXTURES_2_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/TIVOLI_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/TUSCANY_BOOK_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/VELLUTO_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/VERONA_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>https://ashleywildegroup.com//media/catalog/collection-sm/VISAGE_COLLECTION_1.jpg</t>
+  </si>
+  <si>
+    <t>subcategory_name</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/2cbf7096-cd38-4f3d-ae53-b438644c42d9.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/30dde5e0-dce7-4a0f-ac07-7b39defe4759.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/464c25bf-92e0-4ffe-8f99-2fd04a3ab4bb.jpg </t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/4f0e2eac-0e8e-47e3-9d28-44298ee74aea.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/c47b9afd-2d7b-4016-8099-0738f37cc210.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/b992e0eb-b93c-48a4-aea1-5b1e3c245025.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/cbcd9cdd-88e8-4e83-a020-2bfadb1feb16.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/5eb01761-7e46-4a3f-aee7-07787ea71a5a.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/00279006-2c69-4b23-8f9c-0dbb2c93319f.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/0416743d-876c-428d-8edf-dbd1c98039a7.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/40354fac-f823-4067-b737-05eca75b3e71.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/b5a8ab24-ee09-46df-b3de-6dae7d71e31f.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/53c933a7-565c-4ba1-b962-9af172c1e6ae.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/e9b77367-9eb1-4018-9a86-d556ff3f6951.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/0e848ef6-46df-47df-97d4-b8e7ed87b155.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/4bafd394-99ce-4f17-a68b-c471d41ae10f.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/27a9d996-543f-45a0-9352-4f24da5c3087.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/7a7d6761-b635-4893-ab8e-e813028b4625.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/24fd3e7f-a1d4-489b-b64f-99ce9ad40071.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/208e62d1-4eae-4d65-86b5-791f145222fc.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/c9038b68-318b-42b2-869e-c74cdf883dc0.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/ec812543-68e8-43c5-a19f-1422f429b28d.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/f57cda55-add3-49e7-b956-ff77e5acddd7.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/c0a55733-da32-440e-b4fd-b06ec7876222.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/a240af09-73f7-46b8-b0dd-218cbd2e9a7e.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/d8547ef9-d7b3-49eb-9a06-bab572baf990.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/75e3b3c9-dab1-4d87-9baf-a177482ea6b0.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/79491e75-3e39-4062-b152-1b7400f10401.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/a95bf12c-a9db-409d-a88a-ada73017b64b.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/e825aa66-4031-48f8-9ee1-a6611c951839.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/9653874c-3b43-40c2-81aa-0303384a86e2.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/8e872c1a-36a6-4cd6-8e12-12410a4c56c8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/c1a4de56-6a35-4a7b-94dd-f2568a69abed.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/c0229856-42a8-4cca-bc9e-60f42406d3ec.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/75338989-d809-4740-a14a-b777a4dfd0fb.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/74d37d28-0759-4e5d-9c6e-eb98efc99519.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/0a6a7562-9bd8-4742-a4d0-bcee267429ce.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/8990fcbf-0cf0-4076-a0cd-04471cd8ece5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/bf17a89b-dd75-423d-bc24-774557c560a4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/2b0c2f54-fa72-445a-9f83-386e4b89fe6e.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/c50590bb-2184-4d47-aa69-d3abe8ddc038.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/3467face-9e8d-43c2-875f-5cf8f825b484.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/2bab38e1-0ff2-4224-8310-de8d36ee516f.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/24b623f8-ef26-43b3-83e5-a707166e5eb3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/2aa921fa-362a-40bc-aa3d-1dde8135d643.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/95267cd0-1515-4f72-92c2-68adf34e54e1.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/0fe31e88-bd6a-4511-8b96-9fa2ac8e3f83.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/f77cce15-ab46-4723-9a61-076b328d8d8d.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/e74b3681-6afc-4841-a280-ccf46ab62a00.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +717,14 @@
       <color rgb="FF020817"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -183,11 +770,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -201,9 +789,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,33 +1072,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:R1057"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="51.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="42.28515625" customWidth="1"/>
+    <col min="3" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="104.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -519,350 +1109,2716 @@
         <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="P2" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>60</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>150</v>
+      </c>
+      <c r="Q3">
+        <v>60</v>
+      </c>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>150</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <v>150</v>
+      </c>
+      <c r="Q5">
+        <v>60</v>
+      </c>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>100</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>329</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <v>329</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>429</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10">
+        <v>429</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11">
+        <v>429</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12">
+        <v>429</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>279</v>
+      </c>
+      <c r="Q13">
         <v>21</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="R13" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P14">
+        <v>329</v>
+      </c>
+      <c r="Q14">
+        <v>22</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15">
+        <v>229</v>
+      </c>
+      <c r="Q15">
+        <v>23</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <v>329</v>
+      </c>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17">
+        <v>69</v>
+      </c>
+      <c r="Q17">
+        <v>25</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18">
+        <v>49</v>
+      </c>
+      <c r="Q18">
+        <v>26</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="N19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19">
+        <v>59</v>
+      </c>
+      <c r="Q19">
+        <v>27</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <v>129</v>
+      </c>
+      <c r="Q20">
+        <v>28</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>137</v>
+      </c>
+      <c r="N21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>99</v>
+      </c>
+      <c r="Q21">
+        <v>29</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="N22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22">
+        <v>169</v>
+      </c>
+      <c r="Q22">
+        <v>30</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23">
+        <v>169</v>
+      </c>
+      <c r="Q23">
+        <v>31</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24">
+        <v>499</v>
+      </c>
+      <c r="Q24">
+        <v>32</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25">
+        <v>149</v>
+      </c>
+      <c r="Q25">
+        <v>33</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>142</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26">
+        <v>379</v>
+      </c>
+      <c r="Q26">
+        <v>34</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>219</v>
+      </c>
+      <c r="Q27">
+        <v>35</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>144</v>
+      </c>
+      <c r="N28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28">
+        <v>119</v>
+      </c>
+      <c r="Q28">
+        <v>36</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>145</v>
+      </c>
+      <c r="N29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29">
+        <v>179</v>
+      </c>
+      <c r="Q29">
+        <v>37</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>146</v>
+      </c>
+      <c r="N30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30">
+        <v>429</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>147</v>
+      </c>
+      <c r="N31" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31">
+        <v>429</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>148</v>
+      </c>
+      <c r="N32" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32">
+        <v>279</v>
+      </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>149</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33">
+        <v>329</v>
+      </c>
+      <c r="Q33">
+        <v>20</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
         <v>150</v>
       </c>
-      <c r="P2" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="N34" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34">
+        <v>229</v>
+      </c>
+      <c r="Q34">
+        <v>21</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>151</v>
+      </c>
+      <c r="N35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35">
+        <v>329</v>
+      </c>
+      <c r="Q35">
+        <v>22</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>152</v>
+      </c>
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36">
+        <v>69</v>
+      </c>
+      <c r="Q36">
+        <v>23</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>153</v>
+      </c>
+      <c r="N37" t="s">
+        <v>46</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37">
+        <v>49</v>
+      </c>
+      <c r="Q37">
+        <v>24</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>154</v>
+      </c>
+      <c r="N38" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38">
+        <v>59</v>
+      </c>
+      <c r="Q38">
+        <v>25</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>155</v>
+      </c>
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39">
+        <v>129</v>
+      </c>
+      <c r="Q39">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R39" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>156</v>
+      </c>
+      <c r="N40" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40">
+        <v>99</v>
+      </c>
+      <c r="Q40">
+        <v>27</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>157</v>
+      </c>
+      <c r="N41" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41">
+        <v>169</v>
+      </c>
+      <c r="Q41">
+        <v>28</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>158</v>
+      </c>
+      <c r="N42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P42">
+        <v>169</v>
+      </c>
+      <c r="Q42">
+        <v>29</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>159</v>
+      </c>
+      <c r="N43" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O43" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43">
+        <v>499</v>
+      </c>
+      <c r="Q43">
+        <v>30</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>160</v>
+      </c>
+      <c r="N44" t="s">
+        <v>46</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44">
+        <v>149</v>
+      </c>
+      <c r="Q44">
+        <v>31</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>161</v>
+      </c>
+      <c r="N45" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45">
+        <v>379</v>
+      </c>
+      <c r="Q45">
+        <v>20</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>162</v>
+      </c>
+      <c r="N46" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46">
+        <v>219</v>
+      </c>
+      <c r="Q46">
+        <v>20</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>163</v>
+      </c>
+      <c r="N47" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47">
+        <v>119</v>
+      </c>
+      <c r="Q47">
+        <v>20</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>164</v>
+      </c>
+      <c r="N48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48">
+        <v>179</v>
+      </c>
+      <c r="Q48">
+        <v>20</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>165</v>
+      </c>
+      <c r="N49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P49">
+        <v>119</v>
+      </c>
+      <c r="Q49">
+        <v>21</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>166</v>
+      </c>
+      <c r="N50" t="s">
+        <v>48</v>
+      </c>
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50">
+        <v>179</v>
+      </c>
+      <c r="Q50">
+        <v>22</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>167</v>
+      </c>
+      <c r="N51" t="s">
+        <v>46</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51">
+        <v>379</v>
+      </c>
+      <c r="Q51">
         <v>23</v>
       </c>
-      <c r="O3">
-        <v>150</v>
-      </c>
-      <c r="P3">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="R51" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>121</v>
+      </c>
+      <c r="N52" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="1">
-        <v>500</v>
-      </c>
-      <c r="P4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="P52">
+        <v>379</v>
+      </c>
+      <c r="Q52">
+        <v>24</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R54" s="5"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R61" s="5"/>
+    </row>
+    <row r="67" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R67" s="5"/>
+    </row>
+    <row r="73" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R73" s="5"/>
+    </row>
+    <row r="84" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R84" s="5"/>
+    </row>
+    <row r="90" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R90" s="5"/>
+    </row>
+    <row r="97" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R97" s="5"/>
+    </row>
+    <row r="101" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R101" s="5"/>
+    </row>
+    <row r="108" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R108" s="5"/>
+    </row>
+    <row r="123" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R123" s="5"/>
+    </row>
+    <row r="129" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R129" s="5"/>
+    </row>
+    <row r="135" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R135" s="5"/>
+    </row>
+    <row r="141" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R141" s="5"/>
+    </row>
+    <row r="147" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R147" s="5"/>
+    </row>
+    <row r="152" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R152" s="5"/>
+    </row>
+    <row r="158" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R158" s="5"/>
+    </row>
+    <row r="167" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R167" s="5"/>
+    </row>
+    <row r="171" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R171" s="5"/>
+    </row>
+    <row r="178" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R178" s="5"/>
+    </row>
+    <row r="185" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R185" s="5"/>
+    </row>
+    <row r="199" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R199" s="5"/>
+    </row>
+    <row r="205" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R205" s="5"/>
+    </row>
+    <row r="221" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R221" s="5"/>
+    </row>
+    <row r="236" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R236" s="5"/>
+    </row>
+    <row r="245" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R245" s="5"/>
+    </row>
+    <row r="251" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R251" s="5"/>
+    </row>
+    <row r="258" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R258" s="5"/>
+    </row>
+    <row r="265" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R265" s="5"/>
+    </row>
+    <row r="272" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R272" s="5"/>
+    </row>
+    <row r="279" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R279" s="5"/>
+    </row>
+    <row r="286" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R286" s="5"/>
+    </row>
+    <row r="292" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R292" s="5"/>
+    </row>
+    <row r="299" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R299" s="5"/>
+    </row>
+    <row r="305" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R305" s="5"/>
+    </row>
+    <row r="311" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R311" s="5"/>
+    </row>
+    <row r="317" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R317" s="5"/>
+    </row>
+    <row r="323" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R323" s="5"/>
+    </row>
+    <row r="329" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R329" s="5"/>
+    </row>
+    <row r="335" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R335" s="5"/>
+    </row>
+    <row r="342" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R342" s="5"/>
+    </row>
+    <row r="349" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R349" s="5"/>
+    </row>
+    <row r="356" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R356" s="5"/>
+    </row>
+    <row r="363" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R363" s="5"/>
+    </row>
+    <row r="369" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R369" s="5"/>
+    </row>
+    <row r="376" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R376" s="5"/>
+    </row>
+    <row r="383" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R383" s="5"/>
+    </row>
+    <row r="390" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R390" s="5"/>
+    </row>
+    <row r="397" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R397" s="5"/>
+    </row>
+    <row r="404" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R404" s="5"/>
+    </row>
+    <row r="410" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R410" s="5"/>
+    </row>
+    <row r="419" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R419" s="5"/>
+    </row>
+    <row r="428" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R428" s="5"/>
+    </row>
+    <row r="446" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R446" s="5"/>
+    </row>
+    <row r="453" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R453" s="5"/>
+    </row>
+    <row r="460" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R460" s="5"/>
+    </row>
+    <row r="466" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R466" s="5"/>
+    </row>
+    <row r="473" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R473" s="5"/>
+    </row>
+    <row r="480" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R480" s="5"/>
+    </row>
+    <row r="486" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R486" s="5"/>
+    </row>
+    <row r="493" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R493" s="5"/>
+    </row>
+    <row r="499" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R499" s="5"/>
+    </row>
+    <row r="506" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R506" s="5"/>
+    </row>
+    <row r="513" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R513" s="5"/>
+    </row>
+    <row r="520" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R520" s="5"/>
+    </row>
+    <row r="527" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R527" s="5"/>
+    </row>
+    <row r="534" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R534" s="5"/>
+    </row>
+    <row r="541" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R541" s="5"/>
+    </row>
+    <row r="548" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R548" s="5"/>
+    </row>
+    <row r="555" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R555" s="5"/>
+    </row>
+    <row r="561" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R561" s="5"/>
+    </row>
+    <row r="563" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R563" s="5"/>
+    </row>
+    <row r="569" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R569" s="5"/>
+    </row>
+    <row r="575" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R575" s="5"/>
+    </row>
+    <row r="577" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R577" s="5"/>
+    </row>
+    <row r="579" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R579" s="5"/>
+    </row>
+    <row r="581" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R581" s="5"/>
+    </row>
+    <row r="588" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R588" s="5"/>
+    </row>
+    <row r="597" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R597" s="5"/>
+    </row>
+    <row r="612" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R612" s="5"/>
+    </row>
+    <row r="619" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R619" s="5"/>
+    </row>
+    <row r="626" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R626" s="5"/>
+    </row>
+    <row r="633" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R633" s="5"/>
+    </row>
+    <row r="635" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R635" s="5"/>
+    </row>
+    <row r="642" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R642" s="5"/>
+    </row>
+    <row r="648" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R648" s="5"/>
+    </row>
+    <row r="650" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R650" s="5"/>
+    </row>
+    <row r="652" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R652" s="5"/>
+    </row>
+    <row r="654" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R654" s="5"/>
+    </row>
+    <row r="656" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R656" s="5"/>
+    </row>
+    <row r="661" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R661" s="5"/>
+    </row>
+    <row r="668" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R668" s="5"/>
+    </row>
+    <row r="672" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R672" s="5"/>
+    </row>
+    <row r="678" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R678" s="5"/>
+    </row>
+    <row r="680" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R680" s="5"/>
+    </row>
+    <row r="686" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R686" s="5"/>
+    </row>
+    <row r="692" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R692" s="5"/>
+    </row>
+    <row r="700" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R700" s="5"/>
+    </row>
+    <row r="706" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R706" s="5"/>
+    </row>
+    <row r="712" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R712" s="5"/>
+    </row>
+    <row r="714" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R714" s="5"/>
+    </row>
+    <row r="716" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R716" s="5"/>
+    </row>
+    <row r="718" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R718" s="5"/>
+    </row>
+    <row r="725" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R725" s="5"/>
+    </row>
+    <row r="727" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R727" s="5"/>
+    </row>
+    <row r="729" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R729" s="5"/>
+    </row>
+    <row r="736" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R736" s="5"/>
+    </row>
+    <row r="739" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R739" s="5"/>
+    </row>
+    <row r="757" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R757" s="5"/>
+    </row>
+    <row r="775" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R775" s="5"/>
+    </row>
+    <row r="781" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R781" s="5"/>
+    </row>
+    <row r="787" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R787" s="5"/>
+    </row>
+    <row r="810" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R810" s="5"/>
+    </row>
+    <row r="816" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R816" s="5"/>
+    </row>
+    <row r="833" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R833" s="5"/>
+    </row>
+    <row r="858" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R858" s="5"/>
+    </row>
+    <row r="864" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R864" s="5"/>
+    </row>
+    <row r="870" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R870" s="5"/>
+    </row>
+    <row r="872" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R872" s="5"/>
+    </row>
+    <row r="874" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R874" s="5"/>
+    </row>
+    <row r="884" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R884" s="5"/>
+    </row>
+    <row r="894" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R894" s="5"/>
+    </row>
+    <row r="904" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R904" s="5"/>
+    </row>
+    <row r="909" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R909" s="5"/>
+    </row>
+    <row r="919" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R919" s="5"/>
+    </row>
+    <row r="925" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R925" s="5"/>
+    </row>
+    <row r="929" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R929" s="5"/>
+    </row>
+    <row r="935" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R935" s="5"/>
+    </row>
+    <row r="941" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R941" s="5"/>
+    </row>
+    <row r="947" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R947" s="5"/>
+    </row>
+    <row r="953" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R953" s="5"/>
+    </row>
+    <row r="959" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R959" s="5"/>
+    </row>
+    <row r="965" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R965" s="5"/>
+    </row>
+    <row r="967" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R967" s="5"/>
+    </row>
+    <row r="972" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R972" s="5"/>
+    </row>
+    <row r="974" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R974" s="5"/>
+    </row>
+    <row r="984" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R984" s="5"/>
+    </row>
+    <row r="989" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R989" s="5"/>
+    </row>
+    <row r="995" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R995" s="5"/>
+    </row>
+    <row r="1001" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1001" s="5"/>
+    </row>
+    <row r="1007" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1007" s="5"/>
+    </row>
+    <row r="1013" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1013" s="5"/>
+    </row>
+    <row r="1019" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1019" s="5"/>
+    </row>
+    <row r="1025" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1025" s="5"/>
+    </row>
+    <row r="1031" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1031" s="5"/>
+    </row>
+    <row r="1033" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1033" s="5"/>
+    </row>
+    <row r="1039" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1039" s="5"/>
+    </row>
+    <row r="1048" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1048" s="5"/>
+    </row>
+    <row r="1057" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R1057" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1"/>
+    <hyperlink ref="R4" r:id="rId2"/>
+    <hyperlink ref="R6" r:id="rId3"/>
+    <hyperlink ref="R7" r:id="rId4"/>
+    <hyperlink ref="R8" r:id="rId5"/>
+    <hyperlink ref="R9" r:id="rId6"/>
+    <hyperlink ref="R10" r:id="rId7"/>
+    <hyperlink ref="R11" r:id="rId8"/>
+    <hyperlink ref="R12" r:id="rId9"/>
+    <hyperlink ref="R13" r:id="rId10"/>
+    <hyperlink ref="R14" r:id="rId11"/>
+    <hyperlink ref="R15" r:id="rId12"/>
+    <hyperlink ref="R16" r:id="rId13"/>
+    <hyperlink ref="R17" r:id="rId14"/>
+    <hyperlink ref="R18" r:id="rId15"/>
+    <hyperlink ref="R19" r:id="rId16"/>
+    <hyperlink ref="R20" r:id="rId17"/>
+    <hyperlink ref="R21" r:id="rId18"/>
+    <hyperlink ref="R22" r:id="rId19"/>
+    <hyperlink ref="R23" r:id="rId20"/>
+    <hyperlink ref="R24" r:id="rId21"/>
+    <hyperlink ref="R25" r:id="rId22"/>
+    <hyperlink ref="R26" r:id="rId23"/>
+    <hyperlink ref="R27" r:id="rId24"/>
+    <hyperlink ref="R28" r:id="rId25"/>
+    <hyperlink ref="R29" r:id="rId26"/>
+    <hyperlink ref="R30" r:id="rId27"/>
+    <hyperlink ref="R31" r:id="rId28"/>
+    <hyperlink ref="R32" r:id="rId29"/>
+    <hyperlink ref="R33" r:id="rId30"/>
+    <hyperlink ref="R34" r:id="rId31"/>
+    <hyperlink ref="R35" r:id="rId32"/>
+    <hyperlink ref="R36" r:id="rId33"/>
+    <hyperlink ref="R37" r:id="rId34"/>
+    <hyperlink ref="R38" r:id="rId35"/>
+    <hyperlink ref="R39" r:id="rId36"/>
+    <hyperlink ref="R40" r:id="rId37"/>
+    <hyperlink ref="R41" r:id="rId38"/>
+    <hyperlink ref="R42" r:id="rId39"/>
+    <hyperlink ref="R43" r:id="rId40"/>
+    <hyperlink ref="R44" r:id="rId41"/>
+    <hyperlink ref="R45" r:id="rId42"/>
+    <hyperlink ref="R46" r:id="rId43"/>
+    <hyperlink ref="R47" r:id="rId44"/>
+    <hyperlink ref="R48" r:id="rId45"/>
+    <hyperlink ref="R49" r:id="rId46"/>
+    <hyperlink ref="R50" r:id="rId47"/>
+    <hyperlink ref="R51" r:id="rId48"/>
+    <hyperlink ref="R52" r:id="rId49"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/public/products_template.xlsx
+++ b/public/products_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="245">
   <si>
     <t>available</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>xs</t>
-  </si>
-  <si>
-    <t>MODERN CLASSICS GRAPHIC TEE</t>
   </si>
   <si>
     <t>&lt;p&gt;MODERN CLASSICS GRAPHIC TEE&lt;br /&gt;Description&lt;br /&gt;A CLASSIC TEE THAT NODS TO THE BRAND WITH THE 3-STRIPES.&lt;br /&gt;A premium look for easygoing days. This adidas tee is made from soft French terry material that keeps you comfortable whether you're out exploring the city or relaxing at home. Embroidery on the front adds subtle texture and retro style. Pair this top with joggers for a sporty vibe or jeans and sneakers for casual weekend adventures. Wherever the day takes you, this tee has you covered in comfort and style.The cotton in this product has been sourced through Better Cotton. Better Cotton is sourced via a chain of custody model called mass balance. This means that Better Cotton is not physically traceable to end products.&lt;br /&gt;Details&lt;br /&gt;Regular fit&lt;br /&gt;Crewneck&lt;br /&gt;70% cotton, 30% polyester (recycled)&lt;br /&gt;Embroidered details&lt;br /&gt;Sourced through Better Cotton via a system of mass balance and therefore this product may not contain Better Cotton&lt;br /&gt;Colour: Black&lt;br /&gt;Product code: IW2705&lt;br /&gt;Care&lt;br /&gt;WASHING INSTRUCTIONS&lt;br /&gt;Do not bleach&lt;br /&gt;Tumble dry low heat&lt;br /&gt;Do not dry clean&lt;br /&gt;Touch up with cool iron&lt;br /&gt;Machine wash warm&lt;br /&gt;EXTRA CARE INFORMATION&lt;br /&gt;Wash with like colors&lt;br /&gt;Wash and iron inside out&lt;br /&gt;Use mild detergent only&lt;/p&gt;</t>
@@ -866,6 +863,15 @@
   </si>
   <si>
     <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/f58e1a14-3db1-4c7d-923c-b550819202fc.jpg</t>
+  </si>
+  <si>
+    <t>MODERN GRAPHIC lorem</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/d67c00a7-ecab-4125-b161-ac9d3c887fa9.jpg</t>
+  </si>
+  <si>
+    <t>https://media.zid.store/675070ce-1a39-4ad3-8aa5-85b6c78651b3/27fc398a-719f-4919-8634-052e26fa0389.jpg</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,10 +1298,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -1304,7 +1310,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
@@ -1351,52 +1357,52 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>17</v>
@@ -1408,15 +1414,15 @@
         <v>32</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>17</v>
@@ -1427,13 +1433,16 @@
       <c r="S3">
         <v>5</v>
       </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>17</v>
@@ -1444,13 +1453,16 @@
       <c r="S4">
         <v>7</v>
       </c>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>17</v>
@@ -1461,14 +1473,17 @@
       <c r="S5">
         <v>9</v>
       </c>
+      <c r="T5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="G6" s="1"/>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>17</v>
@@ -1479,11 +1494,13 @@
       <c r="S6">
         <v>10</v>
       </c>
-      <c r="T6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="P7" t="s">
         <v>20</v>
@@ -1497,642 +1514,561 @@
       <c r="S7">
         <v>10</v>
       </c>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" t="s">
-        <v>43</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="1"/>
       <c r="P8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="R8">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="S8">
-        <v>47</v>
-      </c>
-      <c r="T8" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="P9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="R9">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>242</v>
+      </c>
       <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="R10">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="S10">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>242</v>
+      </c>
       <c r="P11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="R11">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="G12" s="1"/>
       <c r="P12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="R12">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="S12">
         <v>10</v>
       </c>
+      <c r="T12" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>242</v>
+      </c>
       <c r="P13" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>19</v>
+      <c r="Q13" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="R13">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="S13">
         <v>10</v>
       </c>
+      <c r="T13" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" t="s">
-        <v>53</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="1"/>
       <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R14">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="S14">
-        <v>59</v>
-      </c>
-      <c r="T14" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>242</v>
+      </c>
       <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R15">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="S15">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>242</v>
+      </c>
       <c r="P16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R16">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="S16">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>242</v>
+      </c>
       <c r="P17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R17">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="S17">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="G18" s="1"/>
       <c r="P18" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R18">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="S18">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="P19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="R19">
-        <v>499</v>
+        <v>279</v>
       </c>
       <c r="S19">
-        <v>54</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>72</v>
+        <v>10</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" t="s">
+        <v>42</v>
+      </c>
       <c r="P20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="R20">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="S20">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="T20" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>34</v>
+      </c>
       <c r="P21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="R21">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="S21">
-        <v>56</v>
-      </c>
-      <c r="T21" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1"/>
       <c r="P22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="R22">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="S22">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1"/>
       <c r="P23" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="R23">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="S23">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1"/>
       <c r="P24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="R24">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="S24">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" t="s">
-        <v>81</v>
-      </c>
-      <c r="N25" t="s">
-        <v>82</v>
-      </c>
-      <c r="O25" t="s">
-        <v>83</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G25" s="1"/>
       <c r="P25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="R25">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="S25">
-        <v>59</v>
-      </c>
-      <c r="T25" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
       <c r="P26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>78</v>
+        <v>25</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="R26">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="S26">
         <v>59</v>
       </c>
-      <c r="T26" s="6" t="s">
-        <v>85</v>
+      <c r="T26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
       <c r="P27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="R27">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="S27">
-        <v>59</v>
-      </c>
-      <c r="T27" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
       <c r="P28" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="R28">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="S28">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
       <c r="P29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="R29">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="S29">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
       <c r="P30" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="R30">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="S30">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G31" s="1" t="b">
         <v>1</v>
@@ -2141,864 +2077,595 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="L31" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="M31" t="s">
-        <v>238</v>
+        <v>67</v>
+      </c>
+      <c r="N31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" t="s">
+        <v>69</v>
       </c>
       <c r="P31" t="s">
         <v>25</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R31">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="S31">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>147</v>
-      </c>
-      <c r="L32" t="s">
-        <v>193</v>
-      </c>
-      <c r="M32" t="s">
-        <v>239</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="P32" t="s">
         <v>26</v>
       </c>
-      <c r="Q32" s="5" t="s">
-        <v>71</v>
+      <c r="Q32" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="R32">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S32">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="T32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>148</v>
-      </c>
-      <c r="L33" t="s">
-        <v>194</v>
-      </c>
-      <c r="M33" t="s">
-        <v>240</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G33" s="1"/>
       <c r="P33" t="s">
         <v>27</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="R33">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="S33">
+        <v>56</v>
+      </c>
+      <c r="T33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>149</v>
-      </c>
-      <c r="L34" t="s">
-        <v>195</v>
-      </c>
-      <c r="M34" t="s">
-        <v>241</v>
-      </c>
+      <c r="G34" s="1"/>
       <c r="P34" t="s">
         <v>28</v>
       </c>
-      <c r="Q34" s="5" t="s">
-        <v>78</v>
+      <c r="Q34" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="R34">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="S34">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
-        <v>150</v>
-      </c>
-      <c r="L35" t="s">
-        <v>196</v>
-      </c>
-      <c r="M35" t="s">
-        <v>242</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G35" s="1"/>
       <c r="P35" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="R35">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="S35">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>151</v>
-      </c>
-      <c r="L36" t="s">
-        <v>197</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G36" s="1"/>
       <c r="P36" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36">
+        <v>499</v>
+      </c>
+      <c r="S36">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
         <v>78</v>
       </c>
-      <c r="R36">
-        <v>505</v>
-      </c>
-      <c r="S36">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>152</v>
-      </c>
-      <c r="L37" t="s">
-        <v>198</v>
+      <c r="L37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" t="s">
+        <v>81</v>
+      </c>
+      <c r="O37" t="s">
+        <v>82</v>
       </c>
       <c r="P37" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="5" t="s">
-        <v>71</v>
+      <c r="Q37" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="R37">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="S37">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="T37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>153</v>
-      </c>
-      <c r="L38" t="s">
-        <v>199</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="P38" t="s">
         <v>26</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R38">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="S38">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>154</v>
-      </c>
-      <c r="L39" t="s">
-        <v>200</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="P39" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="5" t="s">
-        <v>78</v>
+      <c r="Q39" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="R39">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="S39">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="T39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>155</v>
-      </c>
-      <c r="L40" t="s">
-        <v>201</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="P40" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="R40">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="S40">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>156</v>
-      </c>
-      <c r="L41" t="s">
-        <v>202</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="P41" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R41">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="S41">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
-        <v>157</v>
-      </c>
-      <c r="L42" t="s">
-        <v>203</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="P42" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="5" t="s">
-        <v>71</v>
+      <c r="Q42" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="R42">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="S42">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>145</v>
+      </c>
+      <c r="L43" t="s">
+        <v>191</v>
+      </c>
+      <c r="M43" t="s">
+        <v>237</v>
+      </c>
+      <c r="P43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R43">
+        <v>500</v>
+      </c>
+      <c r="S43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
         <v>37</v>
       </c>
-      <c r="F43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
-        <v>158</v>
-      </c>
-      <c r="L43" t="s">
-        <v>204</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="G44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>146</v>
+      </c>
+      <c r="L44" t="s">
+        <v>192</v>
+      </c>
+      <c r="M44" t="s">
+        <v>238</v>
+      </c>
+      <c r="P44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R44">
+        <v>501</v>
+      </c>
+      <c r="S44">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" t="s">
+        <v>193</v>
+      </c>
+      <c r="M45" t="s">
+        <v>239</v>
+      </c>
+      <c r="P45" t="s">
         <v>26</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R43">
-        <v>512</v>
-      </c>
-      <c r="S43">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="R45">
+        <v>502</v>
+      </c>
+      <c r="S45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" t="s">
         <v>23</v>
       </c>
-      <c r="F44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>159</v>
-      </c>
-      <c r="L44" t="s">
-        <v>205</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="G46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" t="s">
+        <v>194</v>
+      </c>
+      <c r="M46" t="s">
+        <v>240</v>
+      </c>
+      <c r="P46" t="s">
         <v>27</v>
       </c>
-      <c r="Q44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="R44">
-        <v>513</v>
-      </c>
-      <c r="S44">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
-        <v>160</v>
-      </c>
-      <c r="L45" t="s">
-        <v>206</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="Q46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R46">
+        <v>503</v>
+      </c>
+      <c r="S46">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47" t="s">
+        <v>195</v>
+      </c>
+      <c r="M47" t="s">
+        <v>241</v>
+      </c>
+      <c r="P47" t="s">
         <v>28</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="Q47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R45">
-        <v>514</v>
-      </c>
-      <c r="S45">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46" t="s">
-        <v>161</v>
-      </c>
-      <c r="L46" t="s">
-        <v>207</v>
-      </c>
-      <c r="P46" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R46">
-        <v>515</v>
-      </c>
-      <c r="S46">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="R47">
+        <v>504</v>
+      </c>
+      <c r="S47">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
         <v>37</v>
       </c>
-      <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K47" t="s">
-        <v>162</v>
-      </c>
-      <c r="L47" t="s">
-        <v>208</v>
-      </c>
-      <c r="P47" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R47">
-        <v>516</v>
-      </c>
-      <c r="S47">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" t="s">
-        <v>38</v>
-      </c>
       <c r="G48" s="1" t="b">
         <v>0</v>
       </c>
@@ -3012,92 +2679,92 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L48" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="P48" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R48">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="S48">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L49" t="s">
+        <v>197</v>
+      </c>
+      <c r="P49" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>164</v>
-      </c>
-      <c r="L49" t="s">
-        <v>210</v>
-      </c>
-      <c r="P49" t="s">
-        <v>27</v>
-      </c>
       <c r="Q49" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R49">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="S49">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G50" s="1" t="b">
         <v>0</v>
@@ -3112,42 +2779,42 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L50" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="P50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="S50">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G51" s="1" t="b">
         <v>1</v>
@@ -3162,43 +2829,43 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L51" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="P51" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="R51">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="S51">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
         <v>37</v>
       </c>
-      <c r="F52" t="s">
-        <v>38</v>
-      </c>
       <c r="G52" s="1" t="b">
         <v>0</v>
       </c>
@@ -3212,43 +2879,43 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L52" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="P52" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q52" s="5" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="R52">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="S52">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
         <v>23</v>
       </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
       <c r="G53" s="1" t="b">
         <v>1</v>
       </c>
@@ -3262,43 +2929,43 @@
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="L53" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="P53" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R53">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="S53">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
         <v>23</v>
       </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
       <c r="G54" s="1" t="b">
         <v>0</v>
       </c>
@@ -3312,42 +2979,42 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L54" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="P54" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R54">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="S54">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G55" s="1" t="b">
         <v>1</v>
@@ -3362,43 +3029,43 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L55" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="P55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R55">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="S55">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
         <v>37</v>
       </c>
-      <c r="F56" t="s">
-        <v>38</v>
-      </c>
       <c r="G56" s="1" t="b">
         <v>0</v>
       </c>
@@ -3412,42 +3079,42 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L56" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="P56" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="R56">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="S56">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G57" s="1" t="b">
         <v>1</v>
@@ -3462,43 +3129,43 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="L57" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="P57" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q57" s="5" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="R57">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="S57">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" t="s">
         <v>47</v>
       </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
       <c r="G58" s="1" t="b">
         <v>0</v>
       </c>
@@ -3512,42 +3179,42 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L58" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="P58" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R58">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="S58">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G59" s="1" t="b">
         <v>1</v>
@@ -3562,43 +3229,43 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="L59" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="P59" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R59">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="S59">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" t="s">
         <v>37</v>
       </c>
-      <c r="F60" t="s">
-        <v>38</v>
-      </c>
       <c r="G60" s="1" t="b">
         <v>0</v>
       </c>
@@ -3612,42 +3279,42 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="L60" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="P60" t="s">
         <v>25</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R60">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="S60">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G61" s="1" t="b">
         <v>1</v>
@@ -3662,43 +3329,43 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="P61" t="s">
         <v>26</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="Q61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R61">
+        <v>518</v>
+      </c>
+      <c r="S61">
         <v>78</v>
-      </c>
-      <c r="R61">
-        <v>530</v>
-      </c>
-      <c r="S61">
-        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
         <v>23</v>
       </c>
-      <c r="F62" t="s">
-        <v>48</v>
-      </c>
       <c r="G62" s="1" t="b">
         <v>0</v>
       </c>
@@ -3712,42 +3379,42 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L62" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="P62" t="s">
         <v>27</v>
       </c>
-      <c r="Q62" s="5" t="s">
-        <v>71</v>
+      <c r="Q62" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="R62">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="S62">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G63" s="1" t="b">
         <v>1</v>
@@ -3762,42 +3429,42 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L63" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="P63" t="s">
         <v>28</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R63">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="S63">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" s="1" t="b">
         <v>0</v>
@@ -3812,42 +3479,42 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L64" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="P64" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R64">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="S64">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G65" s="1" t="b">
         <v>1</v>
@@ -3862,43 +3529,43 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L65" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="P65" t="s">
         <v>20</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R65">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="S65">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
         <v>47</v>
       </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
       <c r="G66" s="1" t="b">
         <v>0</v>
       </c>
@@ -3912,43 +3579,43 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="L66" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="P66" t="s">
         <v>25</v>
       </c>
-      <c r="Q66" s="2" t="s">
-        <v>78</v>
+      <c r="Q66" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="R66">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="S66">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" t="s">
         <v>47</v>
       </c>
-      <c r="F67" t="s">
-        <v>38</v>
-      </c>
       <c r="G67" s="1" t="b">
         <v>1</v>
       </c>
@@ -3962,42 +3629,42 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="L67" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="P67" t="s">
         <v>26</v>
       </c>
-      <c r="Q67" s="5" t="s">
-        <v>71</v>
+      <c r="Q67" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="R67">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="S67">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" s="1" t="b">
         <v>0</v>
@@ -4012,42 +3679,42 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="L68" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="P68" t="s">
         <v>27</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R68">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="S68">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G69" s="1" t="b">
         <v>1</v>
@@ -4062,42 +3729,42 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L69" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="P69" t="s">
         <v>28</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R69">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="S69">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G70" s="1" t="b">
         <v>0</v>
@@ -4112,42 +3779,42 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="L70" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="P70" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R70">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="S70">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G71" s="1" t="b">
         <v>1</v>
@@ -4162,42 +3829,42 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="P71" t="s">
         <v>20</v>
       </c>
-      <c r="Q71" s="2" t="s">
-        <v>78</v>
+      <c r="Q71" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="R71">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="S71">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" s="1" t="b">
         <v>0</v>
@@ -4212,42 +3879,42 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="P72" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q72" s="5" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="R72">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="S72">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G73" s="1" t="b">
         <v>1</v>
@@ -4262,42 +3929,42 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L73" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="P73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R73">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="S73">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G74" s="1" t="b">
         <v>0</v>
@@ -4312,43 +3979,43 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L74" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="P74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R74">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="S74">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
         <v>47</v>
       </c>
-      <c r="F75" t="s">
-        <v>38</v>
-      </c>
       <c r="G75" s="1" t="b">
         <v>1</v>
       </c>
@@ -4362,94 +4029,680 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="L75" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="P75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R75">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="S75">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>178</v>
+      </c>
+      <c r="L76" t="s">
+        <v>224</v>
+      </c>
+      <c r="P76" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R76">
+        <v>533</v>
+      </c>
+      <c r="S76">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>179</v>
+      </c>
+      <c r="L77" t="s">
+        <v>225</v>
+      </c>
+      <c r="P77" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R77">
+        <v>534</v>
+      </c>
+      <c r="S77">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>180</v>
+      </c>
+      <c r="L78" t="s">
+        <v>226</v>
+      </c>
+      <c r="P78" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R78">
+        <v>535</v>
+      </c>
+      <c r="S78">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>181</v>
+      </c>
+      <c r="L79" t="s">
+        <v>227</v>
+      </c>
+      <c r="P79" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R79">
+        <v>536</v>
+      </c>
+      <c r="S79">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>182</v>
+      </c>
+      <c r="L80" t="s">
+        <v>228</v>
+      </c>
+      <c r="P80" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R80">
+        <v>537</v>
+      </c>
+      <c r="S80">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>183</v>
+      </c>
+      <c r="L81" t="s">
+        <v>229</v>
+      </c>
+      <c r="P81" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R81">
+        <v>538</v>
+      </c>
+      <c r="S81">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" t="s">
         <v>47</v>
       </c>
-      <c r="F76" t="s">
-        <v>38</v>
-      </c>
-      <c r="G76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="b">
-        <v>1</v>
-      </c>
-      <c r="K76" t="s">
-        <v>191</v>
-      </c>
-      <c r="L76" t="s">
-        <v>237</v>
-      </c>
-      <c r="P76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R76">
+      <c r="G82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>184</v>
+      </c>
+      <c r="L82" t="s">
+        <v>230</v>
+      </c>
+      <c r="P82" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R82">
+        <v>539</v>
+      </c>
+      <c r="S82">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>185</v>
+      </c>
+      <c r="L83" t="s">
+        <v>231</v>
+      </c>
+      <c r="P83" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R83">
+        <v>540</v>
+      </c>
+      <c r="S83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>186</v>
+      </c>
+      <c r="L84" t="s">
+        <v>232</v>
+      </c>
+      <c r="P84" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R84">
+        <v>541</v>
+      </c>
+      <c r="S84">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>187</v>
+      </c>
+      <c r="L85" t="s">
+        <v>233</v>
+      </c>
+      <c r="P85" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R85">
+        <v>542</v>
+      </c>
+      <c r="S85">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>188</v>
+      </c>
+      <c r="L86" t="s">
+        <v>234</v>
+      </c>
+      <c r="P86" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R86">
+        <v>543</v>
+      </c>
+      <c r="S86">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>189</v>
+      </c>
+      <c r="L87" t="s">
+        <v>235</v>
+      </c>
+      <c r="P87" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R87">
+        <v>544</v>
+      </c>
+      <c r="S87">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>190</v>
+      </c>
+      <c r="L88" t="s">
+        <v>236</v>
+      </c>
+      <c r="P88" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R88">
         <v>545</v>
       </c>
-      <c r="S76">
+      <c r="S88">
         <v>105</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G77" s="1"/>
-      <c r="Q77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G78" s="1"/>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q80" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="T19" r:id="rId2"/>
-    <hyperlink ref="L25" r:id="rId3"/>
-    <hyperlink ref="T26" r:id="rId4"/>
+    <hyperlink ref="T31" r:id="rId1"/>
+    <hyperlink ref="L37" r:id="rId2"/>
+    <hyperlink ref="T38" r:id="rId3"/>
+    <hyperlink ref="L2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
